--- a/biology/Botanique/Pommier_à_fleurs/Pommier_à_fleurs.xlsx
+++ b/biology/Botanique/Pommier_à_fleurs/Pommier_à_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pommier_%C3%A0_fleurs</t>
+          <t>Pommier_à_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le nom de Pommier à fleurs, ou pommetier en Amérique du Nord, est un nom vernaculaire utilisé pour différentes espèces ou cultivars de pommiers du genre Malus à petits fruits semblables à des pommes[1] et dont les plus répandus sont :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le nom de Pommier à fleurs, ou pommetier en Amérique du Nord, est un nom vernaculaire utilisé pour différentes espèces ou cultivars de pommiers du genre Malus à petits fruits semblables à des pommes et dont les plus répandus sont :
 Malus baccata  (L.) Borkh.  (sect. Gymnomeles), le pommier de Sibérie ;
 Malus floribunda  Siebold ex Van Houtte  (sect. Malus), le pommier du Japon ;
 Malus sargentii  Rehder  (sect. Sorbomalus).</t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pommier_%C3%A0_fleurs</t>
+          <t>Pommier_à_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Dans le viridarium du jardin familial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les jardins des particuliers, les pommiers ornementaux servent à la décoration et à la pollinisation globale des pommiers de l'espace réservé aux arbres et arbustes fruitiers : le viridarium. Le plus connu est le pommier Evereste. Cette variété résiste aux principales maladies des pommiers et fleurit de mi-avril à la mi-mai. On utilise aussi le Malus coccinella.
 </t>
